--- a/IRCS3_local/IRCS3_build/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_local/IRCS3_build/Input Sheet_IRCS3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\IRCS3_local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\IRCS3_local\IRCS3_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007CD303-809E-4F59-8974-CE4C04F799F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7AC8DD-318D-48D4-A569-4E7BD9C56985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SETTING" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>Path</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>Output UL</t>
-  </si>
-  <si>
-    <t>run13</t>
-  </si>
-  <si>
-    <t>run23</t>
   </si>
   <si>
     <t>run142</t>
@@ -246,81 +240,12 @@
     <t>run2</t>
   </si>
   <si>
-    <t>run22</t>
-  </si>
-  <si>
     <t>run12</t>
   </si>
   <si>
-    <t>run103</t>
-  </si>
-  <si>
     <t>run141</t>
   </si>
   <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\DV_AZTRAD_Stat (1).csv</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\Trad\Data_Extraction_run4TRAD_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\Trad\Data_Extraction_run13TRAD_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\Trad\Data_Extraction_run23TRAD_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\Trad\Data_Extraction_run142TRAD_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\DV_AZUL_Stat_ecass_Con_0625_v1.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\DV_AZUL_Stat_Con_2Q25.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\DV_AZUL_Stat_Con_12M24.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\UL\Data_Extraction_run2UL_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\UL\Data_Extraction_run4UL_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\UL\Data_Extraction_run12UL_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\UL\Data_Extraction_run22UL_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\UL\Data_Extraction_run103UL_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\UL\Data_Extraction_run141UL_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\UL\Data_Extraction_run142UL_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\UVSG\Data_Extraction_run2UVSG.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\UVSG\Data_Extraction_run4UVSG.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\UVSG\Data_Extraction_run103UVSG.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\UVSG\Data_Extraction_run141UVSG.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Run Control 3\Source\UVSG\Data_Extraction_run142UVSG.xlsx</t>
-  </si>
-  <si>
     <t>Output Path Trad</t>
   </si>
   <si>
@@ -328,6 +253,54 @@
   </si>
   <si>
     <t>D:\RUN 3\control_3\IRCS3_local\Output</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\DV_AZTRAD_Stat.csv</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\Data_Extraction_run4TRAD_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\Data_Extraction_run12TRAD_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\Data_Extraction_run2TRAD_Con.xlsx</t>
+  </si>
+  <si>
+    <t>run102</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\Data_Extraction_run4UL_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\Data_Extraction_run102UL_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\Data_Extraction_run141UL_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\Data_Extraction_run142UL_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\DV_AZUL_Stat_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\DV_AZUL_Stat_Con_12M24.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\Data_Extraction_run4UVSG.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\Data_Extraction_run102UVSG.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\Data_Extraction_run141UVSG.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Input Q1 25\Data_Extraction_run142UVSG.xlsx</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
 </sst>
 </file>
@@ -771,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E09DF9-B3EB-4807-9185-E50CFCF678DC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,15 +764,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2025</v>
@@ -807,10 +780,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>16233</v>
+        <v>16588</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -823,18 +796,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -842,7 +815,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -850,7 +823,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -864,15 +837,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98396019-94BE-485D-A5D8-067E27DD3CCC}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
@@ -890,7 +864,7 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>30</v>
@@ -931,30 +905,33 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
       </c>
       <c r="D2">
-        <v>16233</v>
+        <v>16588</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
       </c>
+      <c r="L2">
+        <v>2025</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>16588</v>
@@ -962,22 +939,19 @@
       <c r="J3" t="s">
         <v>35</v>
       </c>
-      <c r="K3">
-        <v>2025</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
       <c r="D4">
-        <v>16233</v>
+        <v>16588</v>
       </c>
       <c r="J4" t="s">
         <v>35</v>
@@ -985,22 +959,8 @@
       <c r="K4">
         <v>2025</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5">
-        <v>16162</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
+      <c r="M4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1011,10 +971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,13 +1000,13 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
@@ -1084,142 +1044,70 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E2">
-        <v>16162</v>
-      </c>
-      <c r="K2" t="s">
-        <v>63</v>
+        <v>16588</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>16233</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
+        <v>16588</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
+      <c r="D4" t="s">
+        <v>75</v>
       </c>
       <c r="E4">
         <v>16588</v>
       </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4">
-        <v>2025</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
       </c>
       <c r="E5">
-        <v>16233</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6">
-        <v>16162</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7">
-        <v>16162</v>
-      </c>
-      <c r="K7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8">
-        <v>16162</v>
-      </c>
-      <c r="K8" t="s">
-        <v>63</v>
+        <v>16588</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA4B8BF-6CE6-426C-98DB-79856DF47CE6}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1263,7 +1151,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1274,7 +1162,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -1285,7 +1173,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1296,7 +1184,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -1307,7 +1195,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -1318,7 +1206,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -1329,7 +1217,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1340,7 +1228,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -1351,12 +1239,12 @@
         <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1365,50 +1253,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8661a489-ba16-49fb-b51a-1401f116943e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DossierStatus xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <ContractExpirationDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <g46983e88b4748ce85d84a0abf06caac xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g46983e88b4748ce85d84a0abf06caac>
-    <DossierOwner xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </DossierOwner>
-    <TaxCatchAll xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <ContractDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <nd5bd31d213b4cb1bf846bde47655c34 xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </nd5bd31d213b4cb1bf846bde47655c34>
-    <_dlc_DocIdPersistId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <_dlc_DocId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">APRHY6R45T4P-856611686-9305190</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
-      <Url>https://allianzms.sharepoint.com/teams/ID0002-5620391/_layouts/15/DocIdRedir.aspx?ID=APRHY6R45T4P-856611686-9305190</Url>
-      <Description>APRHY6R45T4P-856611686-9305190</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAllLabel xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <MailPreviewData xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004312D8B6B7481B43B53F1395DB0B4398" ma:contentTypeVersion="89" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d0ce2a49f41fab833ace50872ca8535">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc25a3cb-218b-453f-9455-87bfb19dc12c" xmlns:ns3="8661a489-ba16-49fb-b51a-1401f116943e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88bce0ef7b5063b091915781c1c66033" ns2:_="" ns3:_="">
     <xsd:import namespace="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
@@ -1749,7 +1593,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1799,26 +1643,51 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF177DCA-1870-4930-AF4A-F7D337DE00DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{438B2D89-528A-4749-8F4C-F7264DEDEF14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8661a489-ba16-49fb-b51a-1401f116943e"/>
-    <ds:schemaRef ds:uri="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8661a489-ba16-49fb-b51a-1401f116943e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DossierStatus xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <ContractExpirationDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <g46983e88b4748ce85d84a0abf06caac xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g46983e88b4748ce85d84a0abf06caac>
+    <DossierOwner xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </DossierOwner>
+    <TaxCatchAll xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <ContractDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <nd5bd31d213b4cb1bf846bde47655c34 xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </nd5bd31d213b4cb1bf846bde47655c34>
+    <_dlc_DocIdPersistId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <_dlc_DocId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">APRHY6R45T4P-856611686-9305190</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <Url>https://allianzms.sharepoint.com/teams/ID0002-5620391/_layouts/15/DocIdRedir.aspx?ID=APRHY6R45T4P-856611686-9305190</Url>
+      <Description>APRHY6R45T4P-856611686-9305190</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAllLabel xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <MailPreviewData xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2FBF0E4-3A46-4E44-9FC1-B647E65C970F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1837,10 +1706,29 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5F97DC-14F1-4D69-A2A3-3239926088C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF177DCA-1870-4930-AF4A-F7D337DE00DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{438B2D89-528A-4749-8F4C-F7264DEDEF14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8661a489-ba16-49fb-b51a-1401f116943e"/>
+    <ds:schemaRef ds:uri="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>